--- a/public/data/INMOBILIARIA.xlsx
+++ b/public/data/INMOBILIARIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="418">
   <si>
     <t>Requiere atención</t>
   </si>
@@ -1211,6 +1211,60 @@
   </si>
   <si>
     <t>424233 - CCoE - RE / Inmobiliaria - Datos Transaccionales - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000373495</t>
+  </si>
+  <si>
+    <t>WO0000000387946</t>
+  </si>
+  <si>
+    <t>446957 - CCoE - RE / Inmobiliaria - Incidencia - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000388588</t>
+  </si>
+  <si>
+    <t>447397 - CCoE - RE / Inmobiliaria - Incidencia - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000390473</t>
+  </si>
+  <si>
+    <t>ALBERTO OTERO LOPEZ</t>
+  </si>
+  <si>
+    <t>449443 - CCoE - RE / Inmobiliaria - Configuración - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000394548</t>
+  </si>
+  <si>
+    <t>453357 - CCoE - RE / Inmobiliaria - Incidencia - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000400017</t>
+  </si>
+  <si>
+    <t>458336 - CCoE - RE / Inmobiliaria - Incidencia - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000404066</t>
+  </si>
+  <si>
+    <t>462180 - CCoE - RE / Inmobiliaria - Incidencia - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000404751</t>
+  </si>
+  <si>
+    <t>462669 - CCoE - RE / Inmobiliaria - Incidencia - ECC / S4H</t>
+  </si>
+  <si>
+    <t>WO0000000412351</t>
+  </si>
+  <si>
+    <t>469190 - CCoE - RE / Inmobiliaria - Configuración - ECC / S4H</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1275,7 @@
     <numFmt numFmtId="164" formatCode="d mmm yyyy, h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1242,6 +1296,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1257,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1282,6 +1346,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1292,6 +1368,10 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,9 +1576,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.25"/>
+    <col customWidth="1" min="2" max="2" width="8.13"/>
+    <col customWidth="1" min="3" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="4.0"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col customWidth="1" min="8" max="8" width="63.38"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1640,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1598,7 +1686,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1642,7 +1730,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1688,7 +1776,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1734,7 +1822,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1780,7 +1868,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1826,7 +1914,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1872,7 +1960,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -1918,7 +2006,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -1964,7 +2052,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -2010,7 +2098,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -2056,7 +2144,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -2102,7 +2190,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -2148,7 +2236,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -2194,7 +2282,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -2240,7 +2328,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>13</v>
@@ -2286,7 +2374,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -2330,7 +2418,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -2374,7 +2462,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>13</v>
@@ -2418,7 +2506,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
@@ -2462,7 +2550,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
@@ -2506,7 +2594,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>13</v>
@@ -2550,7 +2638,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -2594,7 +2682,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -2638,7 +2726,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>13</v>
@@ -2682,7 +2770,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>13</v>
@@ -2726,7 +2814,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -2772,7 +2860,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
@@ -2816,7 +2904,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>13</v>
@@ -2860,7 +2948,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -2904,7 +2992,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -2950,7 +3038,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>13</v>
@@ -2994,7 +3082,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -3038,7 +3126,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>13</v>
@@ -3082,7 +3170,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>13</v>
@@ -3128,7 +3216,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>13</v>
@@ -3174,7 +3262,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -3220,7 +3308,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>13</v>
@@ -3266,7 +3354,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>13</v>
@@ -3312,7 +3400,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>156</v>
       </c>
@@ -3362,7 +3450,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>13</v>
@@ -3406,7 +3494,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -3452,7 +3540,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>13</v>
@@ -3498,7 +3586,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>13</v>
@@ -3544,7 +3632,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>13</v>
@@ -3590,7 +3678,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>13</v>
@@ -3636,7 +3724,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -3682,7 +3770,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>13</v>
@@ -3728,7 +3816,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>13</v>
@@ -3774,7 +3862,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>13</v>
@@ -3820,7 +3908,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>13</v>
@@ -3864,7 +3952,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>13</v>
@@ -3908,7 +3996,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>13</v>
@@ -3952,7 +4040,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -3996,7 +4084,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>13</v>
@@ -4040,7 +4128,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>13</v>
@@ -4084,7 +4172,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>13</v>
@@ -4128,7 +4216,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -4172,7 +4260,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -4216,7 +4304,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>13</v>
@@ -4260,7 +4348,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>13</v>
@@ -4306,7 +4394,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>13</v>
@@ -4352,7 +4440,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>13</v>
@@ -4398,7 +4486,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>13</v>
@@ -4444,7 +4532,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>13</v>
@@ -4490,7 +4578,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -4536,7 +4624,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>13</v>
@@ -4582,7 +4670,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>13</v>
@@ -4628,7 +4716,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>13</v>
@@ -4674,7 +4762,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>13</v>
@@ -4720,7 +4808,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -4766,7 +4854,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>13</v>
@@ -4812,7 +4900,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>13</v>
@@ -4858,7 +4946,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>13</v>
@@ -4904,7 +4992,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>13</v>
@@ -4950,7 +5038,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>13</v>
@@ -4996,7 +5084,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>13</v>
@@ -5042,7 +5130,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>13</v>
@@ -5086,7 +5174,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>13</v>
@@ -5130,7 +5218,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>13</v>
@@ -5174,7 +5262,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>13</v>
@@ -5220,7 +5308,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>13</v>
@@ -5266,7 +5354,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>13</v>
@@ -5312,7 +5400,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>13</v>
@@ -5358,7 +5446,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>13</v>
@@ -5406,7 +5494,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>13</v>
@@ -5454,7 +5542,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>13</v>
@@ -5500,7 +5588,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>13</v>
@@ -5546,7 +5634,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>13</v>
@@ -5592,7 +5680,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>13</v>
@@ -5638,7 +5726,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>13</v>
@@ -5684,7 +5772,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>13</v>
@@ -5730,7 +5818,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>13</v>
@@ -5774,7 +5862,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>13</v>
@@ -5820,7 +5908,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>13</v>
@@ -5868,7 +5956,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>13</v>
@@ -5914,7 +6002,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>13</v>
@@ -5960,7 +6048,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>13</v>
@@ -6004,7 +6092,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>13</v>
@@ -6050,7 +6138,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>13</v>
@@ -6096,7 +6184,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>13</v>
@@ -6142,7 +6230,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>13</v>
@@ -6188,7 +6276,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
         <v>13</v>
@@ -6234,7 +6322,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
         <v>13</v>
@@ -6280,7 +6368,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>13</v>
@@ -6326,7 +6414,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>13</v>
@@ -6372,7 +6460,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>13</v>
@@ -6420,7 +6508,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>13</v>
@@ -6466,7 +6554,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>13</v>
@@ -6512,7 +6600,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>13</v>
@@ -6556,7 +6644,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>13</v>
@@ -6600,7 +6688,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>13</v>
@@ -6646,7 +6734,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>13</v>
@@ -6690,7 +6778,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>157</v>
@@ -6738,7 +6826,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>13</v>
@@ -6786,7 +6874,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>13</v>
@@ -6830,7 +6918,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>13</v>
@@ -6874,7 +6962,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>13</v>
@@ -6918,7 +7006,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>13</v>
@@ -6964,7 +7052,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>13</v>
@@ -7008,7 +7096,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>13</v>
@@ -7052,7 +7140,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>13</v>
@@ -7096,7 +7184,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>13</v>
@@ -7140,7 +7228,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>13</v>
@@ -7184,7 +7272,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>13</v>
@@ -7230,7 +7318,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>13</v>
@@ -7274,7 +7362,1153 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="10">
+        <v>46055.540601851855</v>
+      </c>
+      <c r="K128" s="10">
+        <v>46070.86525462963</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="8"/>
+      <c r="B129" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J129" s="10">
+        <v>46063.4675</v>
+      </c>
+      <c r="K129" s="10">
+        <v>46065.365960648145</v>
+      </c>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="8"/>
+      <c r="B130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J130" s="10">
+        <v>46063.57774305555</v>
+      </c>
+      <c r="K130" s="10">
+        <v>46063.57774305555</v>
+      </c>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="8"/>
+      <c r="B131" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J131" s="10">
+        <v>46064.49679398148</v>
+      </c>
+      <c r="K131" s="10">
+        <v>46064.49679398148</v>
+      </c>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="8"/>
+      <c r="B132" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J132" s="10">
+        <v>46066.46888888889</v>
+      </c>
+      <c r="K132" s="10">
+        <v>46070.53876157408</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="8"/>
+      <c r="B133" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J133" s="10">
+        <v>46070.44550925926</v>
+      </c>
+      <c r="K133" s="10">
+        <v>46070.44550925926</v>
+      </c>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="8"/>
+      <c r="B134" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J134" s="10">
+        <v>46072.408854166664</v>
+      </c>
+      <c r="K134" s="10">
+        <v>46077.436006944445</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="M134" s="8"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J135" s="10">
+        <v>46072.53386574074</v>
+      </c>
+      <c r="K135" s="10">
+        <v>46072.53387731482</v>
+      </c>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="8"/>
+      <c r="B136" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J136" s="10">
+        <v>46077.57571759259</v>
+      </c>
+      <c r="K136" s="10">
+        <v>46077.57571759259</v>
+      </c>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="L128:M128"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>